--- a/code/figure_2_subplots/dynamics1.xlsx
+++ b/code/figure_2_subplots/dynamics1.xlsx
@@ -13,25 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>Pi (mM)</t>
-  </si>
-  <si>
-    <t>ADP (uM)</t>
-  </si>
-  <si>
-    <t>PCr (mM)</t>
-  </si>
-  <si>
-    <t>pH</t>
-  </si>
-  <si>
-    <t>ATP (mM)</t>
-  </si>
-  <si>
-    <t>Force (N)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Pi (mM)</t>
   </si>
@@ -99,7 +81,7 @@
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="true"/>
     <col min="2" max="2" width="13.7109375" customWidth="true"/>
-    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="11.7109375" customWidth="true"/>
     <col min="4" max="4" width="15.7109375" customWidth="true"/>
     <col min="5" max="5" width="11.7109375" customWidth="true"/>
     <col min="6" max="6" width="11.7109375" customWidth="true"/>
@@ -107,1222 +89,1222 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>3.3797376516398887</v>
+        <v>4.0076933988658947</v>
       </c>
       <c r="B2" s="0">
-        <v>0.02826142731832762</v>
+        <v>0.046560232662108542</v>
       </c>
       <c r="C2" s="0">
-        <v>23.336608381472178</v>
+        <v>22.972975396965332</v>
       </c>
       <c r="D2" s="0">
-        <v>9.8669839672086812e-05</v>
+        <v>0.00010264196934192941</v>
       </c>
       <c r="E2" s="0">
-        <v>8.1804315210006724</v>
+        <v>8.1621327156568526</v>
       </c>
       <c r="F2" s="0">
-        <v>586.31921577397554</v>
+        <v>671.53256099350949</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>5.6876701402121688</v>
+        <v>6.5658721849703072</v>
       </c>
       <c r="B3" s="0">
-        <v>0.027066636811594314</v>
+        <v>0.044986843860974922</v>
       </c>
       <c r="C3" s="0">
-        <v>21.16517243413627</v>
+        <v>20.755689403176099</v>
       </c>
       <c r="D3" s="0">
-        <v>0.00011812230764913327</v>
+        <v>0.0001222406023919824</v>
       </c>
       <c r="E3" s="0">
-        <v>8.1816263115073777</v>
+        <v>8.1637061044579902</v>
       </c>
       <c r="F3" s="0">
-        <v>603.85007914781806</v>
+        <v>638.93776044644937</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>7.7022940714478096</v>
+        <v>8.8047949186291952</v>
       </c>
       <c r="B4" s="0">
-        <v>0.025969671391895037</v>
+        <v>0.043583554598859993</v>
       </c>
       <c r="C4" s="0">
-        <v>19.275688885187474</v>
+        <v>18.834349004954756</v>
       </c>
       <c r="D4" s="0">
-        <v>0.00013532529456213428</v>
+        <v>0.00014008791091855573</v>
       </c>
       <c r="E4" s="0">
-        <v>8.1827232769270601</v>
+        <v>8.1651093937201189</v>
       </c>
       <c r="F4" s="0">
-        <v>574.53129779309586</v>
+        <v>609.72897862990794</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>9.4759943820452417</v>
+        <v>10.775997170257085</v>
       </c>
       <c r="B5" s="0">
-        <v>0.025032646257920073</v>
+        <v>0.042323648597706792</v>
       </c>
       <c r="C5" s="0">
-        <v>17.61780959978703</v>
+        <v>17.160501407111777</v>
       </c>
       <c r="D5" s="0">
-        <v>0.0001508124607433297</v>
+        <v>0.00015651038480180766</v>
       </c>
       <c r="E5" s="0">
-        <v>8.1836603020610603</v>
+        <v>8.1663692997212589</v>
       </c>
       <c r="F5" s="0">
-        <v>548.94936563923432</v>
+        <v>583.42390724586369</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>11.049790766207868</v>
+        <v>12.520864711240639</v>
       </c>
       <c r="B6" s="0">
-        <v>0.02422234158155228</v>
+        <v>0.041187343748527769</v>
       </c>
       <c r="C6" s="0">
-        <v>16.152111047967345</v>
+        <v>15.695302353438288</v>
       </c>
       <c r="D6" s="0">
-        <v>0.00016490276539109482</v>
+        <v>0.00017168468061194321</v>
       </c>
       <c r="E6" s="0">
-        <v>8.1844706067374489</v>
+        <v>8.1675056045704544</v>
       </c>
       <c r="F6" s="0">
-        <v>526.67386642248766</v>
+        <v>559.69180212016238</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>12.455518553025104</v>
+        <v>14.073020200603613</v>
       </c>
       <c r="B7" s="0">
-        <v>0.023514369337539285</v>
+        <v>0.040158759052262495</v>
       </c>
       <c r="C7" s="0">
-        <v>14.847982211573797</v>
+        <v>14.407256002803139</v>
       </c>
       <c r="D7" s="0">
-        <v>0.00017780769671093698</v>
+        <v>0.00018572424026805162</v>
       </c>
       <c r="E7" s="0">
-        <v>8.1851785789814588</v>
+        <v>8.1685341892667012</v>
       </c>
       <c r="F7" s="0">
-        <v>507.11612947942257</v>
+        <v>538.25632302352608</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>13.718365801637301</v>
+        <v>15.460049259668537</v>
       </c>
       <c r="B8" s="0">
-        <v>0.022890527157048431</v>
+        <v>0.039224658654765106</v>
       </c>
       <c r="C8" s="0">
-        <v>13.68119622660423</v>
+        <v>13.270575093895694</v>
       </c>
       <c r="D8" s="0">
-        <v>0.00018968127614942809</v>
+        <v>0.00019871264711054151</v>
       </c>
       <c r="E8" s="0">
-        <v>8.1858024211619558</v>
+        <v>8.1694682896642075</v>
       </c>
       <c r="F8" s="0">
-        <v>489.82823820444588</v>
+        <v>518.87185032027594</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>14.858584526514008</v>
+        <v>16.704767909213452</v>
       </c>
       <c r="B9" s="0">
-        <v>0.022336830717374283</v>
+        <v>0.03837380619773826</v>
       </c>
       <c r="C9" s="0">
-        <v>12.632269836358985</v>
+        <v>12.263974678867307</v>
       </c>
       <c r="D9" s="0">
-        <v>0.00020064272202592029</v>
+        <v>0.00021071823490952148</v>
       </c>
       <c r="E9" s="0">
-        <v>8.1863561176016457</v>
+        <v>8.170319142121226</v>
       </c>
       <c r="F9" s="0">
-        <v>474.45830702260827</v>
+        <v>501.31727916397364</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>15.892680931677187</v>
+        <v>17.826183232007224</v>
       </c>
       <c r="B10" s="0">
-        <v>0.021842301792344029</v>
+        <v>0.037596565122113179</v>
       </c>
       <c r="C10" s="0">
-        <v>11.685321136022768</v>
+        <v>11.369758531782042</v>
       </c>
       <c r="D10" s="0">
-        <v>0.00021078824836802553</v>
+        <v>0.0002218010454961832</v>
       </c>
       <c r="E10" s="0">
-        <v>8.1868506465266933</v>
+        <v>8.1710963831968471</v>
       </c>
       <c r="F10" s="0">
-        <v>460.72372739791518</v>
+        <v>485.39393179132867</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>16.834271346551642</v>
+        <v>18.840241333894394</v>
       </c>
       <c r="B11" s="0">
-        <v>0.021398172224305047</v>
+        <v>0.036884613789393235</v>
       </c>
       <c r="C11" s="0">
-        <v>10.827247756539899</v>
+        <v>10.573109290503581</v>
       </c>
       <c r="D11" s="0">
-        <v>0.00022019788095472379</v>
+        <v>0.00023201638381527853</v>
       </c>
       <c r="E11" s="0">
-        <v>8.1872947760947081</v>
+        <v>8.1718083345295902</v>
       </c>
       <c r="F11" s="0">
-        <v>448.39410036878047</v>
+        <v>470.92409409697103</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>17.694701976662799</v>
+        <v>19.76040538882096</v>
       </c>
       <c r="B12" s="0">
-        <v>0.02099734134904481</v>
+        <v>0.036230731489071161</v>
       </c>
       <c r="C12" s="0">
-        <v>10.047131058532292</v>
+        <v>9.8615405638300668</v>
       </c>
       <c r="D12" s="0">
-        <v>0.00022893961562417276</v>
+        <v>0.00024141659061848133</v>
       </c>
       <c r="E12" s="0">
-        <v>8.1876956069699851</v>
+        <v>8.1724622168298993</v>
       </c>
       <c r="F12" s="0">
-        <v>437.27952115706427</v>
+        <v>457.74952887871228</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>18.483518209955559</v>
+        <v>20.598106577680728</v>
       </c>
       <c r="B13" s="0">
-        <v>0.02063398813772542</v>
+        <v>0.035628630342147805</v>
       </c>
       <c r="C13" s="0">
-        <v>9.3357851380059067</v>
+        <v>9.2244699462655557</v>
       </c>
       <c r="D13" s="0">
-        <v>0.00023707222125366676</v>
+        <v>0.00025005187592752495</v>
       </c>
       <c r="E13" s="0">
-        <v>8.1880589601813085</v>
+        <v>8.1730643179768236</v>
       </c>
       <c r="F13" s="0">
-        <v>427.2219899572126</v>
+        <v>445.72985841727609</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>19.208816606567741</v>
+        <v>21.363102598272469</v>
       </c>
       <c r="B14" s="0">
-        <v>0.020303290854013872</v>
+        <v>0.035072817798601705</v>
       </c>
       <c r="C14" s="0">
-        <v>8.6854184289581973</v>
+        <v>8.6528799796999731</v>
       </c>
       <c r="D14" s="0">
-        <v>0.00024464714079517366</v>
+        <v>0.00025797069264933144</v>
       </c>
       <c r="E14" s="0">
-        <v>8.1883896574650379</v>
+        <v>8.1736201305203657</v>
       </c>
       <c r="F14" s="0">
-        <v>418.08903170110631</v>
+        <v>434.74085843485028</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>19.877513992033599</v>
+        <v>22.063768577840715</v>
       </c>
       <c r="B15" s="0">
-        <v>0.020001219578267972</v>
+        <v>0.0345584802162811</v>
       </c>
       <c r="C15" s="0">
-        <v>8.0893744724782923</v>
+        <v>8.1390446135638985</v>
       </c>
       <c r="D15" s="0">
-        <v>0.00025170984092755906</v>
+        <v>0.00026521991286986479</v>
       </c>
       <c r="E15" s="0">
-        <v>8.1886917287408068</v>
+        <v>8.1741344681026558</v>
       </c>
       <c r="F15" s="0">
-        <v>409.76881575281419</v>
+        <v>424.67272709163944</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>20.495562913198341</v>
+        <v>22.707323405501956</v>
       </c>
       <c r="B16" s="0">
-        <v>0.019724376783725076</v>
+        <v>0.034081389988809052</v>
       </c>
       <c r="C16" s="0">
-        <v>7.5419251015542432</v>
+        <v>7.676315292391175</v>
       </c>
       <c r="D16" s="0">
-        <v>0.00025830087450281764</v>
+        <v>0.00027184477330652589</v>
       </c>
       <c r="E16" s="0">
-        <v>8.1889685715353373</v>
+        <v>8.1746115583301009</v>
       </c>
       <c r="F16" s="0">
-        <v>402.16629781086175</v>
+        <v>415.4285069271412</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>21.068115821066076</v>
+        <v>23.300019108938709</v>
       </c>
       <c r="B17" s="0">
-        <v>0.019469877602850932</v>
+        <v>0.033637823990869613</v>
       </c>
       <c r="C17" s="0">
-        <v>7.0381121911463991</v>
+        <v>7.2589434540558191</v>
       </c>
       <c r="D17" s="0">
-        <v>0.00026445663595145013</v>
+        <v>0.00027788884220183654</v>
       </c>
       <c r="E17" s="0">
-        <v>8.1892230707162152</v>
+        <v>8.1750551243280665</v>
       </c>
       <c r="F17" s="0">
-        <v>395.20024898634512</v>
+        <v>406.92257285882278</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>21.599657874329711</v>
+        <v>23.847292325209967</v>
       </c>
       <c r="B18" s="0">
-        <v>0.019235255852124059</v>
+        <v>0.033224496330199207</v>
       </c>
       <c r="C18" s="0">
-        <v>6.5736198331574274</v>
+        <v>6.8819382765109633</v>
       </c>
       <c r="D18" s="0">
-        <v>0.0002702099728193916</v>
+        <v>0.00028339392698197138</v>
       </c>
       <c r="E18" s="0">
-        <v>8.1894576924669149</v>
+        <v>8.1754684519887455</v>
       </c>
       <c r="F18" s="0">
-        <v>388.80086454247657</v>
+        <v>399.07929027176505</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>22.094115509117689</v>
+        <v>24.353888650381293</v>
       </c>
       <c r="B19" s="0">
-        <v>0.019018389436314367</v>
+        <v>0.032838501136083151</v>
       </c>
       <c r="C19" s="0">
-        <v>6.1446702160421429</v>
+        <v>6.5409501207347231</v>
       </c>
       <c r="D19" s="0">
-        <v>0.00027559069326928972</v>
+        <v>0.00028839998643449615</v>
       </c>
       <c r="E19" s="0">
-        <v>8.1896745588827127</v>
+        <v>8.1758544471828341</v>
       </c>
       <c r="F19" s="0">
-        <v>382.90784244758339</v>
+        <v>391.83181068231949</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>22.554940470078677</v>
+        <v>24.823965767535597</v>
       </c>
       <c r="B20" s="0">
-        <v>0.018817442800897411</v>
+        <v>0.032477263568911174</v>
       </c>
       <c r="C20" s="0">
-        <v>5.7479423253464592</v>
+        <v>6.2321740560217114</v>
       </c>
       <c r="D20" s="0">
-        <v>0.00028062593484365507</v>
+        <v>0.00029294506814313374</v>
       </c>
       <c r="E20" s="0">
-        <v>8.1898755055181365</v>
+        <v>8.1762156847499732</v>
       </c>
       <c r="F20" s="0">
-        <v>377.46884953340873</v>
+        <v>385.12100541425752</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>22.985180450442076</v>
+        <v>25.261179112291426</v>
       </c>
       <c r="B21" s="0">
-        <v>0.018630820020166874</v>
+        <v>0.032138497739916318</v>
       </c>
       <c r="C21" s="0">
-        <v>5.3805039566611423</v>
+        <v>5.9522701056813476</v>
       </c>
       <c r="D21" s="0">
-        <v>0.00028534048870695574</v>
+        <v>0.0002970652657888948</v>
       </c>
       <c r="E21" s="0">
-        <v>8.1900621282988819</v>
+        <v>8.1765544505789638</v>
       </c>
       <c r="F21" s="0">
-        <v>372.43827381791999</v>
+        <v>378.89452142643273</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>23.387539479095068</v>
+        <v>25.66875247014568</v>
       </c>
       <c r="B22" s="0">
-        <v>0.018457125937136609</v>
+        <v>0.031820171102685597</v>
       </c>
       <c r="C22" s="0">
-        <v>5.0397540022844227</v>
+        <v>5.6982972035687052</v>
       </c>
       <c r="D22" s="0">
-        <v>0.00028975709465499182</v>
+        <v>0.00030079469017279875</v>
       </c>
       <c r="E22" s="0">
-        <v>8.1902358223819149</v>
+        <v>8.1768727772161984</v>
       </c>
       <c r="F22" s="0">
-        <v>367.77617757799936</v>
+        <v>373.10595966865554</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>23.764424776563835</v>
+        <v>26.049537588457969</v>
       </c>
       <c r="B23" s="0">
-        <v>0.018295135853206287</v>
+        <v>0.031520473522698378</v>
       </c>
       <c r="C23" s="0">
-        <v>4.7233772128604921</v>
+        <v>5.4676577702773956</v>
       </c>
       <c r="D23" s="0">
-        <v>0.00029389665380345721</v>
+        <v>0.00030416546949117436</v>
       </c>
       <c r="E23" s="0">
-        <v>8.1903978124658519</v>
+        <v>8.1771724747962171</v>
       </c>
       <c r="F23" s="0">
-        <v>363.4474616323825</v>
+        <v>367.71415613977098</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>24.117984445421023</v>
+        <v>26.406064376661512</v>
       </c>
       <c r="B24" s="0">
-        <v>0.018143771221754403</v>
+        <v>0.031237790498852613</v>
       </c>
       <c r="C24" s="0">
-        <v>4.4293072294635571</v>
+        <v>5.2580510434475016</v>
       </c>
       <c r="D24" s="0">
-        <v>0.00029777839397443235</v>
+        <v>0.00030720777010299888</v>
       </c>
       <c r="E24" s="0">
-        <v>8.1905491770973136</v>
+        <v>8.1774551578200558</v>
       </c>
       <c r="F24" s="0">
-        <v>359.42117184144803</v>
+        <v>362.68254872710958</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>24.450144450352173</v>
+        <v>26.740583393881487</v>
       </c>
       <c r="B25" s="0">
-        <v>0.01800207745889091</v>
+        <v>0.030970679970917101</v>
       </c>
       <c r="C25" s="0">
-        <v>4.1556917745252928</v>
+        <v>5.0674336958594175</v>
       </c>
       <c r="D25" s="0">
-        <v>0.00030142007365182688</v>
+        <v>0.00030994983666944749</v>
       </c>
       <c r="E25" s="0">
-        <v>8.1906908708601502</v>
+        <v>8.1777222683479742</v>
       </c>
       <c r="F25" s="0">
-        <v>355.66991769971668</v>
+        <v>357.97862842401696</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>24.762636159277491</v>
+        <v>27.055100884192456</v>
       </c>
       <c r="B26" s="0">
-        <v>0.017869206886232888</v>
+        <v>0.030717852691122958</v>
       </c>
       <c r="C26" s="0">
-        <v>3.9008659327066644</v>
+        <v>4.893987097191129</v>
       </c>
       <c r="D26" s="0">
-        <v>0.00030483811360856189</v>
+        <v>0.00031241803334856389</v>
       </c>
       <c r="E26" s="0">
-        <v>8.1908237414328138</v>
+        <v>8.1779750956277866</v>
       </c>
       <c r="F26" s="0">
-        <v>352.16936869595156</v>
+        <v>353.57346526814189</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>25.057019722228436</v>
+        <v>27.351410434475746</v>
       </c>
       <c r="B27" s="0">
-        <v>0.017744404551839101</v>
+        <v>0.03047815411723084</v>
       </c>
       <c r="C27" s="0">
-        <v>3.6633294942535901</v>
+        <v>4.7360882743707107</v>
       </c>
       <c r="D27" s="0">
-        <v>0.00030804771485224358</v>
+        <v>0.0003146369218319855</v>
       </c>
       <c r="E27" s="0">
-        <v>8.1909485437671954</v>
+        <v>8.1782147942016508</v>
       </c>
       <c r="F27" s="0">
-        <v>348.8978600320591</v>
+        <v>349.44127901262215</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>25.334705431013621</v>
+        <v>27.631118803456282</v>
       </c>
       <c r="B28" s="0">
-        <v>0.017626995701389266</v>
+        <v>0.030250549301461031</v>
       </c>
       <c r="C28" s="0">
-        <v>3.4417265598090716</v>
+        <v>4.5922859229779061</v>
       </c>
       <c r="D28" s="0">
-        <v>0.00031106297645794306</v>
+        <v>0.00031662933101874049</v>
       </c>
       <c r="E28" s="0">
-        <v>8.1910659526176577</v>
+        <v>8.1784423990174062</v>
       </c>
       <c r="F28" s="0">
-        <v>345.83603575554054</v>
+        <v>345.55907536614035</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>25.596970901836599</v>
+        <v>27.895668449101297</v>
       </c>
       <c r="B29" s="0">
-        <v>0.017516375650243887</v>
+        <v>0.030034109453090999</v>
       </c>
       <c r="C29" s="0">
-        <v>3.2348288872166453</v>
+        <v>4.461279594976129</v>
       </c>
       <c r="D29" s="0">
-        <v>0.00031389698767446796</v>
+        <v>0.00031841643849939339</v>
       </c>
       <c r="E29" s="0">
-        <v>8.1911765726688088</v>
+        <v>8.1786588388657968</v>
       </c>
       <c r="F29" s="0">
-        <v>342.96655762805449</v>
+        <v>341.90632361959638</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>25.844976366419012</v>
+        <v>28.146356939205891</v>
       </c>
       <c r="B30" s="0">
-        <v>0.017412000987320223</v>
+        <v>0.029828000139137441</v>
       </c>
       <c r="C30" s="0">
-        <v>3.0415212303819712</v>
+        <v>4.3419017825771187</v>
       </c>
       <c r="D30" s="0">
-        <v>0.0003165619160945645</v>
+        <v>0.00032001785646330969</v>
       </c>
       <c r="E30" s="0">
-        <v>8.1912809473317392</v>
+        <v>8.1788649481797737</v>
       </c>
       <c r="F30" s="0">
-        <v>340.27385810203845</v>
+        <v>338.4646743160323</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>26.079777708901517</v>
+        <v>28.384353743055875</v>
       </c>
       <c r="B31" s="0">
-        <v>0.017313382128512026</v>
+        <v>0.029631470898308886</v>
       </c>
       <c r="C31" s="0">
-        <v>2.8607887875984956</v>
+        <v>4.2331024355466349</v>
       </c>
       <c r="D31" s="0">
-        <v>0.0003190690829726581</v>
+        <v>0.00032145172014396713</v>
       </c>
       <c r="E31" s="0">
-        <v>8.1913795661905091</v>
+        <v>8.1790614774206212</v>
       </c>
       <c r="F31" s="0">
-        <v>337.74392283085018</v>
+        <v>335.21771117604908</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>26.302337778961228</v>
+        <v>28.610714791945995</v>
       </c>
       <c r="B32" s="0">
-        <v>0.017220076946870281</v>
+        <v>0.029443846086806919</v>
       </c>
       <c r="C32" s="0">
-        <v>2.6917062658782243</v>
+        <v>4.1339355463229683</v>
       </c>
       <c r="D32" s="0">
-        <v>0.0003214290319089756</v>
+        <v>0.00032273477697594114</v>
       </c>
       <c r="E32" s="0">
-        <v>8.1914728713721487</v>
+        <v>8.1792491022321503</v>
       </c>
       <c r="F32" s="0">
-        <v>335.36410876954915</v>
+        <v>332.15073311037446</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>26.513536283914902</v>
+        <v>28.826395158837673</v>
       </c>
       <c r="B33" s="0">
-        <v>0.017131685265719905</v>
+        <v>0.029264516787210378</v>
       </c>
       <c r="C33" s="0">
-        <v>2.5334283945645164</v>
+        <v>4.0435474784684491</v>
       </c>
       <c r="D33" s="0">
-        <v>0.00032365159037227488</v>
+        <v>0.00032388247531689907</v>
       </c>
       <c r="E33" s="0">
-        <v>8.1915612630532859</v>
+        <v>8.1794284315317558</v>
       </c>
       <c r="F33" s="0">
-        <v>333.12298458050901</v>
+        <v>329.25056220656785</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>26.714178428602292</v>
+        <v>29.032260129247184</v>
       </c>
       <c r="B34" s="0">
-        <v>0.017047844103838385</v>
+        <v>0.029092933647391971</v>
       </c>
       <c r="C34" s="0">
-        <v>2.3851816201740337</v>
+        <v>3.9611667833065649</v>
       </c>
       <c r="D34" s="0">
-        <v>0.00032574592532762518</v>
+        <v>0.00032490905156799344</v>
       </c>
       <c r="E34" s="0">
-        <v>8.1916451042151781</v>
+        <v>8.1796000146715677</v>
       </c>
       <c r="F34" s="0">
-        <v>331.01019283335432</v>
+        <v>326.50537452351665</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>26.905002445960271</v>
+        <v>29.229094541820654</v>
       </c>
       <c r="B35" s="0">
-        <v>0.016968223584575851</v>
+        <v>0.028928600721171264</v>
       </c>
       <c r="C35" s="0">
-        <v>2.246256828975643</v>
+        <v>3.8860954736797191</v>
       </c>
       <c r="D35" s="0">
-        <v>0.00032772059370253856</v>
+        <v>0.00032582761080880712</v>
       </c>
       <c r="E35" s="0">
-        <v>8.1917247247344349</v>
+        <v>8.179764347597807</v>
       </c>
       <c r="F35" s="0">
-        <v>329.01633329253451</v>
+        <v>323.90455316937459</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>27.086685953363659</v>
+        <v>29.417612341777549</v>
       </c>
       <c r="B36" s="0">
-        <v>0.016892523450538103</v>
+        <v>0.028771069273564851</v>
       </c>
       <c r="C36" s="0">
-        <v>2.1160031162938746</v>
+        <v>3.8177006664157012</v>
       </c>
       <c r="D36" s="0">
-        <v>0.00032958358430187765</v>
+        <v>0.00032665022020120866</v>
       </c>
       <c r="E36" s="0">
-        <v>8.1918004248684468</v>
+        <v>8.179921879045418</v>
       </c>
       <c r="F36" s="0">
-        <v>327.13285617376738</v>
+        <v>321.43854886364306</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>27.25985299879024</v>
+        <v>29.598462976719187</v>
       </c>
       <c r="B37" s="0">
-        <v>0.016820469525907478</v>
+        <v>0.028619933356673184</v>
       </c>
       <c r="C37" s="0">
-        <v>1.9938214754831518</v>
+        <v>3.7554082802293984</v>
       </c>
       <c r="D37" s="0">
-        <v>0.00033134237374421243</v>
+        <v>0.00032738797429491981</v>
       </c>
       <c r="E37" s="0">
-        <v>8.191872478793087</v>
+        <v>8.1800730149623</v>
       </c>
       <c r="F37" s="0">
-        <v>325.35197707368553</v>
+        <v>319.09877070599151</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>27.425077439048504</v>
+        <v>29.772238405407649</v>
       </c>
       <c r="B38" s="0">
-        <v>0.016751811588065962</v>
+        <v>0.028474825134011731</v>
       </c>
       <c r="C38" s="0">
-        <v>1.8791608519929976</v>
+        <v>3.6986967814893741</v>
       </c>
       <c r="D38" s="0">
-        <v>0.00033300394154004153</v>
+        <v>0.0003280510735337211</v>
       </c>
       <c r="E38" s="0">
-        <v>8.1919411367309198</v>
+        <v>8.1802181231849733</v>
       </c>
       <c r="F38" s="0">
-        <v>323.66658429943931</v>
+        <v>316.87748015076528</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>27.582888823411995</v>
+        <v>29.939478865980483</v>
       </c>
       <c r="B39" s="0">
-        <v>0.01668632057370394</v>
+        <v>0.028335410952092993</v>
       </c>
       <c r="C39" s="0">
-        <v>1.7715129629612407</v>
+        <v>3.6470918347183594</v>
       </c>
       <c r="D39" s="0">
-        <v>0.00033457482266317502</v>
+        <v>0.00032864889354025591</v>
       </c>
       <c r="E39" s="0">
-        <v>8.192006627745295</v>
+        <v>8.1803575373668949</v>
       </c>
       <c r="F39" s="0">
-        <v>322.07018797775413</v>
+        <v>314.76769948630141</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>27.733776094935227</v>
+        <v>30.100678095778775</v>
       </c>
       <c r="B40" s="0">
-        <v>0.016623786544358123</v>
+        <v>0.028201387767634954</v>
       </c>
       <c r="C40" s="0">
-        <v>1.6704085878550849</v>
+        <v>3.6001615624657513</v>
       </c>
       <c r="D40" s="0">
-        <v>0.00033606113269671231</v>
+        <v>0.00032919005102847185</v>
       </c>
       <c r="E40" s="0">
-        <v>8.1920691617746595</v>
+        <v>8.1804915605513209</v>
       </c>
       <c r="F40" s="0">
-        <v>320.55684503504705</v>
+        <v>312.7631301237065</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>27.878191256646499</v>
+        <v>30.256287871709116</v>
       </c>
       <c r="B41" s="0">
-        <v>0.016564016824462405</v>
+        <v>0.02807248001633024</v>
       </c>
       <c r="C41" s="0">
-        <v>1.5754140507368453</v>
+        <v>3.5575123419817207</v>
       </c>
       <c r="D41" s="0">
-        <v>0.000337468597849314</v>
+        <v>0.00032968246484811533</v>
       </c>
       <c r="E41" s="0">
-        <v>8.1921289314945263</v>
+        <v>8.1806204683026209</v>
       </c>
       <c r="F41" s="0">
-        <v>319.12110877757976</v>
+        <v>310.85808046147991</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>28.016552650653839</v>
+        <v>30.406722244848353</v>
       </c>
       <c r="B42" s="0">
-        <v>0.016506834335624745</v>
+        <v>0.027948436705520562</v>
       </c>
       <c r="C42" s="0">
-        <v>1.4861280707575673</v>
+        <v>3.5187850008799653</v>
       </c>
       <c r="D42" s="0">
-        <v>0.00033880258204713675</v>
+        <v>0.00033013341477701181</v>
       </c>
       <c r="E42" s="0">
-        <v>8.1921861139833769</v>
+        <v>8.1807445116134172</v>
       </c>
       <c r="F42" s="0">
-        <v>317.75798083371018</v>
+        <v>309.04740045675135</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>28.149247861282682</v>
+        <v>30.552360652744962</v>
       </c>
       <c r="B43" s="0">
-        <v>0.016452076130154501</v>
+        <v>0.027829029157118389</v>
       </c>
       <c r="C43" s="0">
-        <v>1.4021789572240997</v>
+        <v>3.4836517455967817</v>
       </c>
       <c r="D43" s="0">
-        <v>0.00034006811151341933</v>
+        <v>0.00033054958913054586</v>
       </c>
       <c r="E43" s="0">
-        <v>8.1922408721888562</v>
+        <v>8.1808639191618546</v>
       </c>
       <c r="F43" s="0">
-        <v>316.46286859590663</v>
+        <v>307.32642796436664</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>28.27663635142601</v>
+        <v>30.693551998655611</v>
       </c>
       <c r="B44" s="0">
-        <v>0.016399592069002489</v>
+        <v>0.027714048313781246</v>
       </c>
       <c r="C44" s="0">
-        <v>1.323222082542429</v>
+        <v>3.4518127750265397</v>
       </c>
       <c r="D44" s="0">
-        <v>0.0003412698975307272</v>
+        <v>0.000330937143031086</v>
       </c>
       <c r="E44" s="0">
-        <v>8.1922933562499889</v>
+        <v>8.180978900005206</v>
       </c>
       <c r="F44" s="0">
-        <v>315.23154615781556</v>
+        <v>305.69093172579949</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>28.399051820409671</v>
+        <v>30.830616899086323</v>
       </c>
       <c r="B45" s="0">
-        <v>0.016349243652618389</v>
+        <v>0.027603303053678287</v>
       </c>
       <c r="C45" s="0">
-        <v>1.2489376109488564</v>
+        <v>3.4229939194105525</v>
       </c>
       <c r="D45" s="0">
-        <v>0.00034241235756278434</v>
+        <v>0.00033130173732768273</v>
       </c>
       <c r="E45" s="0">
-        <v>8.1923437046663743</v>
+        <v>8.1810896452653044</v>
       </c>
       <c r="F45" s="0">
-        <v>314.06012093937221</v>
+        <v>304.13707029639613</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>28.516804331869398</v>
+        <v>30.963850521944682</v>
       </c>
       <c r="B46" s="0">
-        <v>0.016300902971171736</v>
+        <v>0.02749661823989134</v>
       </c>
       <c r="C46" s="0">
-        <v>1.1790284510786664</v>
+        <v>3.3969441791419128</v>
       </c>
       <c r="D46" s="0">
-        <v>0.00034349963466979164</v>
+        <v>0.00033164858300150306</v>
       </c>
       <c r="E46" s="0">
-        <v>8.1923920453478107</v>
+        <v>8.1811963300790733</v>
       </c>
       <c r="F46" s="0">
-        <v>312.94500312131839</v>
+        <v>302.66134973038606</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>28.630182227334721</v>
+        <v>31.093524887589972</v>
       </c>
       <c r="B47" s="0">
-        <v>0.01625445176880384</v>
+        <v>0.02739383310585794</v>
       </c>
       <c r="C47" s="0">
-        <v>1.1132184044391362</v>
+        <v>3.3734335824215993</v>
       </c>
       <c r="D47" s="0">
-        <v>0.00034453561550997744</v>
+        <v>0.00033198247987609419</v>
       </c>
       <c r="E47" s="0">
-        <v>8.1924384965501531</v>
+        <v>8.1812991152131076</v>
       </c>
       <c r="F47" s="0">
-        <v>311.88287866227415</v>
+        <v>301.26058729264537</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>28.739453892521194</v>
+        <v>31.219891002190643</v>
       </c>
       <c r="B48" s="0">
-        <v>0.016209780583845149</v>
+        <v>0.027294799768129378</v>
       </c>
       <c r="C48" s="0">
-        <v>1.0512504913326703</v>
+        <v>3.3522512451403204</v>
       </c>
       <c r="D48" s="0">
-        <v>0.00034552394702768948</v>
+        <v>0.00033230785287676867</v>
       </c>
       <c r="E48" s="0">
-        <v>8.192483167735098</v>
+        <v>8.1813981485508265</v>
       </c>
       <c r="F48" s="0">
-        <v>310.87068409047851</v>
+        <v>299.93187858250479</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>28.844869299182143</v>
+        <v>31.343180578221418</v>
       </c>
       <c r="B49" s="0">
-        <v>0.016166788004967503</v>
+        <v>0.027199381986852771</v>
       </c>
       <c r="C49" s="0">
-        <v>0.99288543124725781</v>
+        <v>3.3332037248922584</v>
       </c>
       <c r="D49" s="0">
-        <v>0.00034646805177891688</v>
+        <v>0.00033262878321067715</v>
       </c>
       <c r="E49" s="0">
-        <v>8.1925261603139639</v>
+        <v>8.1814935663321116</v>
       </c>
       <c r="F49" s="0">
-        <v>309.90558511367061</v>
+        <v>298.67256942057094</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>28.946661472404102</v>
+        <v>31.463607901095799</v>
       </c>
       <c r="B50" s="0">
-        <v>0.016125379968618889</v>
+        <v>0.027107453891137927</v>
       </c>
       <c r="C50" s="0">
-        <v>0.93790026385509362</v>
+        <v>3.3161133869576909</v>
       </c>
       <c r="D50" s="0">
-        <v>0.00034737114241208876</v>
+        <v>0.0003329490403648075</v>
       </c>
       <c r="E50" s="0">
-        <v>8.1925675683502917</v>
+        <v>8.1815854944278144</v>
       </c>
       <c r="F50" s="0">
-        <v>308.98495637863147</v>
+        <v>297.48022854047321</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>29.045047779171842</v>
+        <v>31.581371667298008</v>
       </c>
       <c r="B51" s="0">
-        <v>0.016085469145131794</v>
+        <v>0.027018898756547314</v>
       </c>
       <c r="C51" s="0">
-        <v>0.88608709320793766</v>
+        <v>3.3008168622821015</v>
       </c>
       <c r="D51" s="0">
-        <v>0.00034823623489575587</v>
+        <v>0.00033327211297735215</v>
       </c>
       <c r="E51" s="0">
-        <v>8.1926074791737911</v>
+        <v>8.1816740495624192</v>
       </c>
       <c r="F51" s="0">
-        <v>308.10636370197602</v>
+        <v>296.35262213488346</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>29.140231113384978</v>
+        <v>31.696655259303579</v>
       </c>
       <c r="B52" s="0">
-        <v>0.016046974376146755</v>
+        <v>0.026933608588531038</v>
       </c>
       <c r="C52" s="0">
-        <v>0.83725194412931858</v>
+        <v>3.2871642894692066</v>
       </c>
       <c r="D52" s="0">
-        <v>0.00034906616077265141</v>
+        <v>0.00033360122296962605</v>
       </c>
       <c r="E52" s="0">
-        <v>8.1926459739428026</v>
+        <v>8.1817593397304407</v>
       </c>
       <c r="F52" s="0">
-        <v>307.26754752491593</v>
+        <v>295.28769988021639</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>29.23240097559794</v>
+        <v>31.809629032826788</v>
       </c>
       <c r="B53" s="0">
-        <v>0.016009820167147824</v>
+        <v>0.026851482735388434</v>
       </c>
       <c r="C53" s="0">
-        <v>0.79121372162845327</v>
+        <v>3.275017687322006</v>
       </c>
       <c r="D53" s="0">
-        <v>0.00034986357861900759</v>
+        <v>0.00033393935956311426</v>
       </c>
       <c r="E53" s="0">
-        <v>8.1926831281518258</v>
+        <v>8.1818414655835703</v>
       </c>
       <c r="F53" s="0">
-        <v>306.46640841045968</v>
+        <v>294.28356922164573</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>29.32173449954416</v>
+        <v>31.92045118555329</v>
       </c>
       <c r="B54" s="0">
-        <v>0.015973936214472215</v>
+        <v>0.026772427234104421</v>
       </c>
       <c r="C54" s="0">
-        <v>0.74780324743886284</v>
+        <v>3.2642500363039169</v>
       </c>
       <c r="D54" s="0">
-        <v>0.00035063098518992882</v>
+        <v>0.00033428929800676085</v>
       </c>
       <c r="E54" s="0">
-        <v>8.1927190121045186</v>
+        <v>8.1819205210848445</v>
       </c>
       <c r="F54" s="0">
-        <v>305.70099428227633</v>
+        <v>293.33847997712763</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>29.408397314964059</v>
+        <v>32.029268727174077</v>
       </c>
       <c r="B55" s="0">
-        <v>0.015939256994957254</v>
+        <v>0.026696354124657682</v>
       </c>
       <c r="C55" s="0">
-        <v>0.70686239530543882</v>
+        <v>3.2547443756421952</v>
       </c>
       <c r="D55" s="0">
-        <v>0.00035137072471613985</v>
+        <v>0.00033465361851338924</v>
       </c>
       <c r="E55" s="0">
-        <v>8.1927536913240502</v>
+        <v>8.1819965941942936</v>
       </c>
       <c r="F55" s="0">
-        <v>304.96948719997698</v>
+        <v>292.45080937929816</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>29.492544395428101</v>
+        <v>32.136218382348531</v>
       </c>
       <c r="B56" s="0">
-        <v>0.015905721375535687</v>
+        <v>0.026623180821958161</v>
       </c>
       <c r="C56" s="0">
-        <v>0.66824328841306202</v>
+        <v>3.2463929568844798</v>
       </c>
       <c r="D56" s="0">
-        <v>0.00035208499826316458</v>
+        <v>0.00033503472401576287</v>
       </c>
       <c r="E56" s="0">
-        <v>8.1927872269434658</v>
+        <v>8.1820697674969942</v>
       </c>
       <c r="F56" s="0">
-        <v>304.27019220957885</v>
+        <v>291.61904832784336</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>29.574320829612905</v>
+        <v>32.241427450991907</v>
       </c>
       <c r="B57" s="0">
-        <v>0.01587327226573397</v>
+        <v>0.026552829527026478</v>
       </c>
       <c r="C57" s="0">
-        <v>0.63180756449859909</v>
+        <v>3.2390964611483124</v>
       </c>
       <c r="D57" s="0">
-        <v>0.00035277587268069664</v>
+        <v>0.00033543485681596021</v>
       </c>
       <c r="E57" s="0">
-        <v>8.1928196760532757</v>
+        <v>8.1821401187919225</v>
       </c>
       <c r="F57" s="0">
-        <v>303.60152843322447</v>
+        <v>290.84178876938523</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>29.65386252718012</v>
+        <v>32.345014578944756</v>
       </c>
       <c r="B58" s="0">
-        <v>0.015841856292454486</v>
+        <v>0.026485226699068581</v>
       </c>
       <c r="C58" s="0">
-        <v>0.59742570099340453</v>
+        <v>3.2327632969954148</v>
       </c>
       <c r="D58" s="0">
-        <v>0.00035344528849761558</v>
+        <v>0.00033585611369153681</v>
       </c>
       <c r="E58" s="0">
-        <v>8.1928510920265651</v>
+        <v>8.1822077216198927</v>
       </c>
       <c r="F58" s="0">
-        <v>302.9620191166768</v>
+        <v>290.11771237285336</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0">
-        <v>29.731296835884411</v>
+        <v>32.447090374611903</v>
       </c>
       <c r="B59" s="0">
-        <v>0.015811423518665848</v>
+        <v>0.026420302617098837</v>
       </c>
       <c r="C59" s="0">
-        <v>0.56497639440736447</v>
+        <v>3.2273090031145655</v>
       </c>
       <c r="D59" s="0">
-        <v>0.00035409506723047674</v>
+        <v>0.00033630045887905654</v>
       </c>
       <c r="E59" s="0">
-        <v>8.1928815248003755</v>
+        <v>8.1822726457018646</v>
       </c>
       <c r="F59" s="0">
-        <v>302.350283286094</v>
+        <v>289.44558084317498</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>29.806743156321883</v>
+        <v>32.547758110531035</v>
       </c>
       <c r="B60" s="0">
-        <v>0.015781927168670062</v>
+        <v>0.026357990918793317</v>
       </c>
       <c r="C60" s="0">
-        <v>0.53434598889234075</v>
+        <v>3.2226556245594913</v>
       </c>
       <c r="D60" s="0">
-        <v>0.00035472691856186484</v>
+        <v>0.00033676973754397067</v>
       </c>
       <c r="E60" s="0">
-        <v>8.1929110211503851</v>
+        <v>8.1823349574001529</v>
       </c>
       <c r="F60" s="0">
-        <v>301.76502822263376</v>
+        <v>288.82422618703544</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>29.88031348323458</v>
+        <v>32.647114279375074</v>
       </c>
       <c r="B61" s="0">
-        <v>0.015753323384544719</v>
+        <v>0.026298228219547078</v>
       </c>
       <c r="C61" s="0">
-        <v>0.50542794927369539</v>
+        <v>3.2187311969952406</v>
       </c>
       <c r="D61" s="0">
-        <v>0.00035534244678209767</v>
+        <v>0.00033726568717982634</v>
       </c>
       <c r="E61" s="0">
-        <v>8.1929396249345068</v>
+        <v>8.1823947200993761</v>
       </c>
       <c r="F61" s="0">
-        <v>301.20504224071908</v>
+        <v>288.25254251103536</v>
       </c>
     </row>
   </sheetData>

--- a/code/figure_2_subplots/dynamics1.xlsx
+++ b/code/figure_2_subplots/dynamics1.xlsx
@@ -13,7 +13,79 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+  <si>
+    <t>Pi (mM)</t>
+  </si>
+  <si>
+    <t>ADP (uM)</t>
+  </si>
+  <si>
+    <t>PCr (mM)</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>ATP (mM)</t>
+  </si>
+  <si>
+    <t>Force (N)</t>
+  </si>
+  <si>
+    <t>Pi (mM)</t>
+  </si>
+  <si>
+    <t>ADP (uM)</t>
+  </si>
+  <si>
+    <t>PCr (mM)</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>ATP (mM)</t>
+  </si>
+  <si>
+    <t>Force (N)</t>
+  </si>
+  <si>
+    <t>Pi (mM)</t>
+  </si>
+  <si>
+    <t>ADP (uM)</t>
+  </si>
+  <si>
+    <t>PCr (mM)</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>ATP (mM)</t>
+  </si>
+  <si>
+    <t>Force (N)</t>
+  </si>
+  <si>
+    <t>Pi (mM)</t>
+  </si>
+  <si>
+    <t>ADP (uM)</t>
+  </si>
+  <si>
+    <t>PCr (mM)</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>ATP (mM)</t>
+  </si>
+  <si>
+    <t>Force (N)</t>
+  </si>
   <si>
     <t>Pi (mM)</t>
   </si>
@@ -89,22 +161,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2">
